--- a/QC/Sure/Sure Automation/Documents/Order Management/Wallet Management/Bundle.xlsx
+++ b/QC/Sure/Sure Automation/Documents/Order Management/Wallet Management/Bundle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="289">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>STP-38</t>
+  </si>
+  <si>
+    <t>BILL-208</t>
+  </si>
+  <si>
+    <t>STP-39</t>
   </si>
   <si>
     <t>StepNo</t>
@@ -752,6 +758,15 @@
     <t>$1.BYTYPE.TEXT.SERVCHG4$</t>
   </si>
   <si>
+    <t>DA-39</t>
+  </si>
+  <si>
+    <t>$1.BYTYPE.TEXT.SRVOP01$</t>
+  </si>
+  <si>
+    <t>$1.BYTYPE.TEXT.SRVOP02$</t>
+  </si>
+  <si>
     <t>PageDataNo</t>
   </si>
   <si>
@@ -903,6 +918,9 @@
   </si>
   <si>
     <t>BUNCHG4</t>
+  </si>
+  <si>
+    <t>BUNOP01</t>
   </si>
   <si>
     <t>GridDataNo</t>
@@ -946,8 +964,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -971,39 +989,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,83 +1003,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1108,8 +1026,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,19 +1156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,25 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,67 +1186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,7 +1204,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,13 +1258,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,25 +1318,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,30 +1347,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1367,39 +1361,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,6 +1382,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1429,156 +1438,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1594,6 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="50">
@@ -2005,10 +2024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2991,6 +3010,29 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>103</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="D1:D6">
@@ -3005,10 +3047,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J291"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3025,19 +3067,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -3046,33 +3088,33 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="30" spans="3:4">
       <c r="C3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" ht="60" spans="3:4">
       <c r="C5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" ht="75" spans="3:4">
@@ -3080,87 +3122,87 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="75" spans="3:4">
       <c r="C7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" ht="75" spans="3:4">
       <c r="C8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" ht="75" spans="3:4">
       <c r="C9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" ht="135" spans="3:4">
       <c r="C11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" ht="105" spans="3:4">
       <c r="C14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" ht="105" spans="3:4">
       <c r="C15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" ht="75" spans="3:4">
       <c r="C16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3171,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3185,10 +3227,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1" spans="1:10">
@@ -3199,17 +3241,17 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -3223,10 +3265,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3237,10 +3279,10 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:6">
@@ -3251,11 +3293,11 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D26" s="3"/>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:5">
@@ -3266,11 +3308,11 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" ht="22" customHeight="1" spans="1:10">
@@ -3281,17 +3323,17 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -3305,11 +3347,11 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:5">
@@ -3320,11 +3362,11 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:6">
@@ -3335,11 +3377,11 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D32" s="3"/>
       <c r="F32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:5">
@@ -3350,11 +3392,11 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="1" spans="1:10">
@@ -3365,17 +3407,17 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -3389,11 +3431,11 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:5">
@@ -3404,11 +3446,11 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3419,10 +3461,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3433,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3447,17 +3489,17 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H47" s="5"/>
     </row>
@@ -3469,10 +3511,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3483,10 +3525,10 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:6">
@@ -3497,11 +3539,11 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D52" s="3"/>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:5">
@@ -3512,11 +3554,11 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3527,17 +3569,17 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H54" s="5"/>
     </row>
@@ -3549,11 +3591,11 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:5">
@@ -3564,11 +3606,11 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:6">
@@ -3579,11 +3621,11 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D59" s="3"/>
       <c r="F59" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="1:5">
@@ -3594,11 +3636,11 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3609,17 +3651,17 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H61" s="5"/>
     </row>
@@ -3631,11 +3673,11 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:5">
@@ -3646,11 +3688,11 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:6">
@@ -3661,11 +3703,11 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D67" s="3"/>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:5">
@@ -3676,11 +3718,11 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3691,17 +3733,17 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H69" s="5"/>
     </row>
@@ -3713,11 +3755,11 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:5">
@@ -3728,11 +3770,11 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:6">
@@ -3743,11 +3785,11 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D74" s="3"/>
       <c r="F74" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:5">
@@ -3758,11 +3800,11 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3773,17 +3815,17 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H76" s="5"/>
     </row>
@@ -3795,11 +3837,11 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:5">
@@ -3810,11 +3852,11 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" customFormat="1" spans="1:6">
@@ -3825,11 +3867,11 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D82" s="3"/>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:5">
@@ -3840,11 +3882,11 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3855,17 +3897,17 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H84" s="5"/>
     </row>
@@ -3877,11 +3919,11 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:5">
@@ -3892,11 +3934,11 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:6">
@@ -3907,11 +3949,11 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D89" s="3"/>
       <c r="F89" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:5">
@@ -3922,11 +3964,11 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3937,17 +3979,17 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H91" s="5"/>
     </row>
@@ -3959,11 +4001,11 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:5">
@@ -3974,11 +4016,11 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:6">
@@ -3989,11 +4031,11 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D95" s="3"/>
       <c r="F95" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:5">
@@ -4004,11 +4046,11 @@
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4019,17 +4061,17 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H97" s="5"/>
     </row>
@@ -4041,11 +4083,11 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="1:5">
@@ -4056,11 +4098,11 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:6">
@@ -4071,11 +4113,11 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D102" s="3"/>
       <c r="F102" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="1:5">
@@ -4086,11 +4128,11 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4101,17 +4143,17 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H104" s="5"/>
     </row>
@@ -4123,11 +4165,11 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="1:5">
@@ -4138,11 +4180,11 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:6">
@@ -4153,11 +4195,11 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D109" s="3"/>
       <c r="F109" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:5">
@@ -4168,11 +4210,11 @@
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4183,17 +4225,17 @@
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H111" s="5"/>
     </row>
@@ -4205,11 +4247,11 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="1:5">
@@ -4220,11 +4262,11 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" customFormat="1" spans="1:6">
@@ -4235,11 +4277,11 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D116" s="3"/>
       <c r="F116" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:5">
@@ -4250,11 +4292,11 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4265,17 +4307,17 @@
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H118" s="5"/>
     </row>
@@ -4287,11 +4329,11 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" customFormat="1" spans="1:5">
@@ -4302,11 +4344,11 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" customFormat="1" spans="1:6">
@@ -4317,11 +4359,11 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D124" s="3"/>
       <c r="F124" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" customFormat="1" spans="1:5">
@@ -4332,11 +4374,11 @@
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4347,17 +4389,17 @@
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H126" s="5"/>
     </row>
@@ -4369,11 +4411,11 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" customFormat="1" spans="1:5">
@@ -4384,11 +4426,11 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" customFormat="1" spans="1:6">
@@ -4399,11 +4441,11 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D131" s="3"/>
       <c r="F131" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" customFormat="1" spans="1:5">
@@ -4414,11 +4456,11 @@
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4429,17 +4471,17 @@
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H133" s="5"/>
     </row>
@@ -4451,11 +4493,11 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" customFormat="1" spans="1:5">
@@ -4466,11 +4508,11 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" customFormat="1" spans="1:6">
@@ -4481,11 +4523,11 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D139" s="3"/>
       <c r="F139" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" customFormat="1" spans="1:5">
@@ -4496,11 +4538,11 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4511,17 +4553,17 @@
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H141" s="5"/>
     </row>
@@ -4533,11 +4575,11 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" customFormat="1" spans="1:5">
@@ -4548,11 +4590,11 @@
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" customFormat="1" spans="1:6">
@@ -4563,11 +4605,11 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D147" s="3"/>
       <c r="F147" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148" customFormat="1" spans="1:5">
@@ -4578,11 +4620,11 @@
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4593,17 +4635,17 @@
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H149" s="5"/>
     </row>
@@ -4615,11 +4657,11 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" customFormat="1" spans="1:5">
@@ -4630,11 +4672,11 @@
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" customFormat="1" spans="1:6">
@@ -4645,11 +4687,11 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D155" s="3"/>
       <c r="F155" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" customFormat="1" spans="1:5">
@@ -4660,11 +4702,11 @@
         <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4675,17 +4717,17 @@
         <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H157" s="5"/>
     </row>
@@ -4697,11 +4739,11 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:5">
@@ -4712,11 +4754,11 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161" customFormat="1" spans="1:6">
@@ -4727,11 +4769,11 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D161" s="3"/>
       <c r="F161" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" customFormat="1" spans="1:5">
@@ -4742,11 +4784,11 @@
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4757,17 +4799,17 @@
         <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H163" s="5"/>
     </row>
@@ -4779,11 +4821,11 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165" customFormat="1" spans="1:5">
@@ -4794,11 +4836,11 @@
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168" customFormat="1" spans="1:6">
@@ -4809,11 +4851,11 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D168" s="3"/>
       <c r="F168" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" customFormat="1" spans="1:5">
@@ -4824,11 +4866,11 @@
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4839,17 +4881,17 @@
         <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H170" s="5"/>
     </row>
@@ -4861,11 +4903,11 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172" customFormat="1" spans="1:5">
@@ -4876,11 +4918,11 @@
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" customFormat="1"/>
@@ -4892,11 +4934,11 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D174" s="3"/>
       <c r="F174" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" customFormat="1" spans="1:5">
@@ -4907,11 +4949,11 @@
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176" customFormat="1" spans="1:8">
@@ -4922,17 +4964,17 @@
         <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H176" s="5"/>
     </row>
@@ -4944,11 +4986,11 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" customFormat="1" spans="1:5">
@@ -4959,11 +5001,11 @@
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181" customFormat="1" spans="1:6">
@@ -4974,11 +5016,11 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D181" s="3"/>
       <c r="F181" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182" customFormat="1" spans="1:5">
@@ -4989,11 +5031,11 @@
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183" customFormat="1" spans="1:8">
@@ -5004,17 +5046,17 @@
         <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H183" s="5"/>
     </row>
@@ -5026,11 +5068,11 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185" customFormat="1" spans="1:5">
@@ -5041,11 +5083,11 @@
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="187" customFormat="1" spans="1:6">
@@ -5056,11 +5098,11 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D187" s="3"/>
       <c r="F187" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" customFormat="1" spans="1:5">
@@ -5071,11 +5113,11 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="189" customFormat="1" spans="1:8">
@@ -5086,17 +5128,17 @@
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H189" s="5"/>
     </row>
@@ -5108,11 +5150,11 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191" customFormat="1" spans="1:5">
@@ -5123,11 +5165,11 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="194" customFormat="1" spans="1:6">
@@ -5138,11 +5180,11 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D194" s="3"/>
       <c r="F194" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="195" customFormat="1" spans="1:5">
@@ -5153,11 +5195,11 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="196" customFormat="1" spans="1:8">
@@ -5168,17 +5210,17 @@
         <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H196" s="5"/>
     </row>
@@ -5190,11 +5232,11 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="198" customFormat="1" spans="1:5">
@@ -5205,11 +5247,11 @@
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="200" customFormat="1" spans="1:6">
@@ -5220,11 +5262,11 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D200" s="3"/>
       <c r="F200" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" customFormat="1" spans="1:5">
@@ -5235,11 +5277,11 @@
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="202" customFormat="1" spans="1:8">
@@ -5250,17 +5292,17 @@
         <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H202" s="5"/>
     </row>
@@ -5272,11 +5314,11 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="204" customFormat="1" spans="1:5">
@@ -5287,11 +5329,11 @@
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="207" customFormat="1" spans="1:6">
@@ -5302,11 +5344,11 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D207" s="3"/>
       <c r="F207" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="208" customFormat="1" spans="1:5">
@@ -5317,11 +5359,11 @@
         <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="209" customFormat="1" spans="1:8">
@@ -5332,17 +5374,17 @@
         <v>3</v>
       </c>
       <c r="C209" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H209" s="5"/>
     </row>
@@ -5354,17 +5396,17 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H210" s="5"/>
     </row>
@@ -5376,11 +5418,11 @@
         <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="212" customFormat="1" spans="1:5">
@@ -5391,11 +5433,11 @@
         <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="213" customFormat="1" spans="1:7">
@@ -5406,17 +5448,17 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" customFormat="1" spans="1:7">
@@ -5427,17 +5469,17 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="215" customFormat="1" spans="1:5">
@@ -5448,11 +5490,11 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="216" customFormat="1" spans="1:5">
@@ -5463,10 +5505,10 @@
         <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E216" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="217" customFormat="1"/>
@@ -5478,11 +5520,11 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D218" s="3"/>
       <c r="F218" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="219" customFormat="1" spans="1:5">
@@ -5493,11 +5535,11 @@
         <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="220" customFormat="1" spans="1:8">
@@ -5508,17 +5550,17 @@
         <v>3</v>
       </c>
       <c r="C220" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H220" s="5"/>
     </row>
@@ -5530,11 +5572,11 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="222" customFormat="1" spans="1:5">
@@ -5545,11 +5587,11 @@
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5560,10 +5602,10 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F224" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5574,10 +5616,10 @@
         <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E225" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5588,17 +5630,17 @@
         <v>3</v>
       </c>
       <c r="C226" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5609,10 +5651,10 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E227" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5623,10 +5665,10 @@
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E228" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5637,10 +5679,10 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F230" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5651,10 +5693,10 @@
         <v>2</v>
       </c>
       <c r="C231" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E231" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5665,17 +5707,17 @@
         <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5686,10 +5728,10 @@
         <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E233" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5700,10 +5742,10 @@
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E234" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5714,10 +5756,10 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F236" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5728,10 +5770,10 @@
         <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E237" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5742,17 +5784,17 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5763,10 +5805,10 @@
         <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E239" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5777,10 +5819,10 @@
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E240" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5791,10 +5833,10 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F242" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5805,10 +5847,10 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E243" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5819,17 +5861,17 @@
         <v>3</v>
       </c>
       <c r="C244" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D244" s="4"/>
       <c r="E244" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5840,10 +5882,10 @@
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E245" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5854,10 +5896,10 @@
         <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E246" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5868,10 +5910,10 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F248" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5882,10 +5924,10 @@
         <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E249" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -5896,17 +5938,17 @@
         <v>3</v>
       </c>
       <c r="C250" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5917,10 +5959,10 @@
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E251" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5931,10 +5973,10 @@
         <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E252" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5945,10 +5987,10 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F255" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5959,10 +6001,10 @@
         <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E256" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -5973,17 +6015,17 @@
         <v>3</v>
       </c>
       <c r="C257" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D257" s="4"/>
       <c r="E257" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5994,10 +6036,10 @@
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E258" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6008,10 +6050,10 @@
         <v>5</v>
       </c>
       <c r="C259" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E259" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="265" customFormat="1" spans="1:6">
@@ -6022,11 +6064,11 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D265" s="3"/>
       <c r="F265" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="266" customFormat="1" spans="1:5">
@@ -6037,11 +6079,11 @@
         <v>2</v>
       </c>
       <c r="C266" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="267" customFormat="1" spans="1:7">
@@ -6052,17 +6094,17 @@
         <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D267" s="4"/>
       <c r="E267" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="268" customFormat="1" spans="1:5">
@@ -6073,11 +6115,11 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="269" customFormat="1" spans="1:5">
@@ -6088,11 +6130,11 @@
         <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="272" customFormat="1" spans="1:6">
@@ -6103,11 +6145,11 @@
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D272" s="3"/>
       <c r="F272" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="273" customFormat="1" spans="1:5">
@@ -6118,11 +6160,11 @@
         <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D273" s="3"/>
       <c r="E273" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="274" customFormat="1" spans="1:7">
@@ -6133,17 +6175,17 @@
         <v>3</v>
       </c>
       <c r="C274" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D274" s="4"/>
       <c r="E274" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="275" customFormat="1" spans="1:5">
@@ -6154,11 +6196,11 @@
         <v>4</v>
       </c>
       <c r="C275" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="276" customFormat="1" spans="1:5">
@@ -6169,11 +6211,11 @@
         <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="279" customFormat="1" spans="1:6">
@@ -6184,11 +6226,11 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D279" s="3"/>
       <c r="F279" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="280" customFormat="1" spans="1:5">
@@ -6199,11 +6241,11 @@
         <v>2</v>
       </c>
       <c r="C280" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D280" s="3"/>
       <c r="E280" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="281" customFormat="1" spans="1:7">
@@ -6214,17 +6256,17 @@
         <v>3</v>
       </c>
       <c r="C281" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D281" s="4"/>
       <c r="E281" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="282" customFormat="1" spans="1:5">
@@ -6235,11 +6277,11 @@
         <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D282" s="3"/>
       <c r="E282" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="283" customFormat="1" spans="1:5">
@@ -6250,11 +6292,11 @@
         <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D283" s="3"/>
       <c r="E283" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="287" customFormat="1" spans="1:6">
@@ -6265,11 +6307,11 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D287" s="3"/>
       <c r="F287" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="288" customFormat="1" spans="1:5">
@@ -6280,11 +6322,11 @@
         <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D288" s="3"/>
       <c r="E288" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="289" customFormat="1" spans="1:7">
@@ -6295,17 +6337,17 @@
         <v>3</v>
       </c>
       <c r="C289" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="290" customFormat="1" spans="1:5">
@@ -6316,11 +6358,11 @@
         <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D290" s="3"/>
       <c r="E290" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="291" customFormat="1" spans="1:5">
@@ -6331,11 +6373,145 @@
         <v>5</v>
       </c>
       <c r="C291" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D291" s="3"/>
       <c r="E291" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
+        <v>103</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294" t="s">
+        <v>110</v>
+      </c>
+      <c r="D294" s="3"/>
+      <c r="F294" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>103</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295" t="s">
+        <v>111</v>
+      </c>
+      <c r="D295" s="3"/>
+      <c r="E295" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>103</v>
+      </c>
+      <c r="B296">
+        <v>3</v>
+      </c>
+      <c r="C296" t="s">
+        <v>131</v>
+      </c>
+      <c r="D296" s="4"/>
+      <c r="E296" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G296" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>103</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297" t="s">
+        <v>111</v>
+      </c>
+      <c r="D297" s="3"/>
+      <c r="E297" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>103</v>
+      </c>
+      <c r="B298">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>111</v>
+      </c>
+      <c r="D298" s="3"/>
+      <c r="E298" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>103</v>
+      </c>
+      <c r="B299">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>131</v>
+      </c>
+      <c r="D299" s="4"/>
+      <c r="E299" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G299" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>103</v>
+      </c>
+      <c r="B300">
+        <v>7</v>
+      </c>
+      <c r="C300" t="s">
+        <v>111</v>
+      </c>
+      <c r="D300" s="3"/>
+      <c r="E300" t="s">
+        <v>142</v>
+      </c>
+      <c r="F300" s="5"/>
+      <c r="G300" s="6"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>103</v>
+      </c>
+      <c r="B301">
+        <v>8</v>
+      </c>
+      <c r="C301" t="s">
+        <v>111</v>
+      </c>
+      <c r="D301" s="3"/>
+      <c r="E301" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6349,10 +6525,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -6377,692 +6553,709 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" t="s">
         <v>237</v>
       </c>
-      <c r="D11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" t="s">
-        <v>232</v>
-      </c>
       <c r="F11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" t="s">
         <v>238</v>
-      </c>
-      <c r="D12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F12" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:6">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D25" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D26" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:6">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D28" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:6">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E30" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:6">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:6">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:6">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E33" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:6">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E34" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:6">
       <c r="A35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D35" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E35" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F38" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:6">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D40" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E40" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F40" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F41" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D42" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E42" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F42" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D43" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F43" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C44" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D44" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F44" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D45" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E45" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F45" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C46" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D46" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E46" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F46" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:6">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E49" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F49" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:6">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C50" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D50" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E50" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F50" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:6">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C51" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D51" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E51" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F51" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:6">
       <c r="A52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D52" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E52" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F52" t="s">
-        <v>233</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D55" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -7091,10 +7284,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7144,22 +7337,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7196,16 +7389,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -7236,16 +7429,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
